--- a/data/raw/Lab data.xlsx
+++ b/data/raw/Lab data.xlsx
@@ -4764,35 +4764,40 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Standard Document" ma:contentTypeID="0x010100EE95EE7DB3A482488E68FA4A7091999F003CCD4A4BFBBE2C43A47767A144F9EFED" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6a2c1177e0b69ea6cfd36c2bda2b2415">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4240f11c-4df2-4a37-9be1-bdf0d4dfc218" xmlns:ns3="fe73b3f6-a427-4a99-886e-da32c6de835d" xmlns:ns4="236fb19c-531c-4906-93ff-6da175312317" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="488faa49e5aa9ebf8092283bde2cbd00" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="4240f11c-4df2-4a37-9be1-bdf0d4dfc218"/>
-    <xsd:import namespace="fe73b3f6-a427-4a99-886e-da32c6de835d"/>
-    <xsd:import namespace="236fb19c-531c-4906-93ff-6da175312317"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045C41757E45BA74E8B0A30E2C95298E7" ma:contentTypeVersion="27" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="5c3912b040cd266749d2d9bd87e0ee4b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="28349b29-79b2-45aa-b36e-fb891b3ccb4b" xmlns:ns3="e36f48cb-a69d-424f-965f-90680a634d4c" xmlns:ns4="d2c93e69-2a94-4828-91f8-356e1218f977" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="148a95ca08c07953d446f38436003735" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="28349b29-79b2-45aa-b36e-fb891b3ccb4b"/>
+    <xsd:import namespace="e36f48cb-a69d-424f-965f-90680a634d4c"/>
+    <xsd:import namespace="d2c93e69-2a94-4828-91f8-356e1218f977"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:ECMX_SUMMARY" minOccurs="0"/>
-                <xsd:element ref="ns3:c67668d6730c4bc2a26c654fc875ab99" minOccurs="0"/>
+                <xsd:element ref="ns2:Bewaartermijn" minOccurs="0"/>
+                <xsd:element ref="ns2:Procestypenaam" minOccurs="0"/>
+                <xsd:element ref="ns2:Resultaat" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAllLabel" minOccurs="0"/>
-                <xsd:element ref="ns3:o13d78bceb4b4178ab3c456bf4db706a" minOccurs="0"/>
-                <xsd:element ref="ns3:na274824997947589a1bfdfb0b645b50" minOccurs="0"/>
-                <xsd:element ref="ns3:kf1264ba1b22407abef15b09c01e8cf0" minOccurs="0"/>
-                <xsd:element ref="ns3:b489bfe21c7249aba6a1ae186fa4e51c" minOccurs="0"/>
-                <xsd:element ref="ns3:cbaf9fdaaf87475a8d0ae10d3e79318e" minOccurs="0"/>
-                <xsd:element ref="ns2:ECMX_PUBLISHDATE" minOccurs="0"/>
-                <xsd:element ref="ns2:ECMX_BUSINESSID" minOccurs="0"/>
-                <xsd:element ref="ns2:ECMX_OPERATIONALID" minOccurs="0"/>
-                <xsd:element ref="ns2:ECMX_ADDITIONALINFO" minOccurs="0"/>
-                <xsd:element ref="ns3:ECMX_OWNER" minOccurs="0"/>
-                <xsd:element ref="ns4:_dlc_DocId" minOccurs="0"/>
-                <xsd:element ref="ns4:_dlc_DocIdUrl" minOccurs="0"/>
-                <xsd:element ref="ns4:_dlc_DocIdPersistId" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxKeywordTaxHTField" minOccurs="0"/>
+                <xsd:element ref="ns4:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns4:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceBillingMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:Status" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4800,54 +4805,108 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4240f11c-4df2-4a37-9be1-bdf0d4dfc218" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="28349b29-79b2-45aa-b36e-fb891b3ccb4b" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="ECMX_SUMMARY" ma:index="8" nillable="true" ma:displayName="Summary" ma:description="Short and distinct description of the document" ma:internalName="ECMX_SUMMARY">
+    <xsd:element name="Bewaartermijn" ma:index="8" nillable="true" ma:displayName="Bewaartermijn" ma:default="2 jaar" ma:format="RadioButtons" ma:internalName="Bewaartermijn">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="2 jaar"/>
+          <xsd:enumeration value="5 jaar"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Procestypenaam" ma:index="9" nillable="true" ma:displayName="Procestypenaam" ma:internalName="Procestypenaam">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="1. Instellen en inrichten organisatie"/>
+          <xsd:enumeration value="2. Beleid en regelgeving opstellen"/>
+          <xsd:enumeration value="3. Plannen opstellen"/>
+          <xsd:enumeration value="4. Evaluatie uitvoeren"/>
+          <xsd:enumeration value="5. Producten en diensten leveren"/>
+          <xsd:enumeration value="6. Verzoeken behandelen"/>
+          <xsd:enumeration value="7. Aangiften behandelen"/>
+          <xsd:enumeration value="8. Voorzieningen verstrekken"/>
+          <xsd:enumeration value="9. Status toekennen"/>
+          <xsd:enumeration value="10. Heffen"/>
+          <xsd:enumeration value="11. Toestemming verlenen"/>
+          <xsd:enumeration value="12. Toezien en handhaven"/>
+          <xsd:enumeration value="13. Geschillen behandelen"/>
+          <xsd:enumeration value="14. Openbare ruimte inrichten"/>
+          <xsd:enumeration value="15. Onderhouden en repareren"/>
+          <xsd:enumeration value="16. Overeenkomsten aangaan"/>
+          <xsd:enumeration value="17. Personenen aanstellen"/>
+          <xsd:enumeration value="18. Betalen en innen"/>
+          <xsd:enumeration value="19. Secretariaat voeren en gegevens administreren/verwerken"/>
+          <xsd:enumeration value="20. Informeren"/>
+          <xsd:enumeration value="21. Adviseren"/>
+          <xsd:enumeration value="22. Gebeurtenis organiseren"/>
+          <xsd:enumeration value="23. Voorziening aanvragen"/>
+          <xsd:enumeration value="24. Toestemming vragen"/>
+          <xsd:enumeration value="25. Toezicht en handhaving ondergaan"/>
+          <xsd:enumeration value="26. Betwisten"/>
+          <xsd:enumeration value="27. Status aanvragen"/>
+          <xsd:enumeration value="28. Product of dienst aanvragen"/>
+          <xsd:enumeration value="29. Aangifte doen"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Resultaat" ma:index="10" nillable="true" ma:displayName="Resultaat" ma:internalName="Resultaat">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Aangegaan"/>
+          <xsd:enumeration value="Aangesteld"/>
+          <xsd:enumeration value="Afgebroken"/>
+          <xsd:enumeration value="Afgehandeld"/>
+          <xsd:enumeration value="Afgewezen"/>
+          <xsd:enumeration value="Beëindigd"/>
+          <xsd:enumeration value="Betaald"/>
+          <xsd:enumeration value="Geïnd"/>
+          <xsd:enumeration value="Geleverd"/>
+          <xsd:enumeration value="Geweigerd"/>
+          <xsd:enumeration value="Gewijzigd"/>
+          <xsd:enumeration value="Uitgevoerd"/>
+          <xsd:enumeration value="Ingericht"/>
+          <xsd:enumeration value="Ingesteld"/>
+          <xsd:enumeration value="Ingetrokken"/>
+          <xsd:enumeration value="Ingewilligd"/>
+          <xsd:enumeration value="Niet aangesteld"/>
+          <xsd:enumeration value="Niet betaald"/>
+          <xsd:enumeration value="Niet doorgegaan"/>
+          <xsd:enumeration value="Niet geïnd"/>
+          <xsd:enumeration value="Niet geleverd"/>
+          <xsd:enumeration value="Niet gewijzigd"/>
+          <xsd:enumeration value="Niet opgelegd"/>
+          <xsd:enumeration value="Niet toegekend"/>
+          <xsd:enumeration value="Niet uitgevoerd"/>
+          <xsd:enumeration value="Niet vastgesteld"/>
+          <xsd:enumeration value="Niet verkregen"/>
+          <xsd:enumeration value="Niet verstrekt"/>
+          <xsd:enumeration value="Niet verwerkt"/>
+          <xsd:enumeration value="Opgeheven"/>
+          <xsd:enumeration value="Opgelegd"/>
+          <xsd:enumeration value="Toegekend"/>
+          <xsd:enumeration value="Uitgevoerd"/>
+          <xsd:enumeration value="Vastgesteld"/>
+          <xsd:enumeration value="Verkregen"/>
+          <xsd:enumeration value="Verleend"/>
+          <xsd:enumeration value="Verstrekt"/>
+          <xsd:enumeration value="Verwerkt"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e36f48cb-a69d-424f-965f-90680a634d4c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="ECMX_PUBLISHDATE" ma:index="23" nillable="true" ma:displayName="Publish Date" ma:description="Enter the date of publication or finalisation of this document" ma:format="DateOnly" ma:internalName="ECMX_PUBLISHDATE">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ECMX_BUSINESSID" ma:index="24" nillable="true" ma:displayName="Business ID" ma:description="Enter the business identifier of the document such as ECDC/IP/25" ma:internalName="ECMX_BUSINESSID">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ECMX_OPERATIONALID" ma:index="25" nillable="true" ma:displayName="Operational ID" ma:description="Enter the operational or workflow identifier such as 104.2.2.1" ma:internalName="ECMX_OPERATIONALID">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="ECMX_ADDITIONALINFO" ma:index="26" nillable="true" ma:displayName="Additional Info" ma:description="Provide any additional notes or information about the document" ma:internalName="ECMX_ADDITIONALINFO">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fe73b3f6-a427-4a99-886e-da32c6de835d" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="c67668d6730c4bc2a26c654fc875ab99" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="c67668d6730c4bc2a26c654fc875ab99" ma:taxonomyFieldName="ECMX_CATEGORYLABEL" ma:displayName="Category Label" ma:fieldId="{c67668d6-730c-4bc2-a26c-654fc875ab99}" ma:taxonomyMulti="true" ma:sspId="14c281f0-fdb2-43d6-8bd5-8268950107ba" ma:termSetId="c558570e-7e10-421a-aae8-97c91a675078" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ecf1e52f-beaa-4c26-a94c-cd839e7630aa}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="236fb19c-531c-4906-93ff-6da175312317">
+    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{81ed36b6-db46-4c49-a12a-c9222fe17571}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e36f48cb-a69d-424f-965f-90680a634d4c">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -4858,56 +4917,10 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="TaxCatchAllLabel" ma:index="11" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{ecf1e52f-beaa-4c26-a94c-cd839e7630aa}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="236fb19c-531c-4906-93ff-6da175312317">
+    <xsd:element name="SharedWithUsers" ma:index="29" nillable="true" ma:displayName="Gedeeld met" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="o13d78bceb4b4178ab3c456bf4db706a" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="o13d78bceb4b4178ab3c456bf4db706a" ma:taxonomyFieldName="ECMX_DOCUMENTTYPE" ma:displayName="Document Type" ma:fieldId="{813d78bc-eb4b-4178-ab3c-456bf4db706a}" ma:sspId="14c281f0-fdb2-43d6-8bd5-8268950107ba" ma:termSetId="c389c416-3255-4b96-b67a-477bf9d78a26" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="na274824997947589a1bfdfb0b645b50" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="na274824997947589a1bfdfb0b645b50" ma:taxonomyFieldName="ECMX_ENTITY" ma:displayName="Entity" ma:fieldId="{7a274824-9979-4758-9a1b-fdfb0b645b50}" ma:sspId="14c281f0-fdb2-43d6-8bd5-8268950107ba" ma:termSetId="642df4da-6b01-472d-8f33-07d3ed3a3ad4" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="kf1264ba1b22407abef15b09c01e8cf0" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="kf1264ba1b22407abef15b09c01e8cf0" ma:taxonomyFieldName="ECMX_DISEASEPATHOGEN" ma:displayName="Disease/Pathogen" ma:fieldId="{4f1264ba-1b22-407a-bef1-5b09c01e8cf0}" ma:sspId="14c281f0-fdb2-43d6-8bd5-8268950107ba" ma:termSetId="0299f09b-7697-48da-88c2-893786836ca5" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="b489bfe21c7249aba6a1ae186fa4e51c" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="b489bfe21c7249aba6a1ae186fa4e51c" ma:taxonomyFieldName="ECMX_DOCUMENTSTATUS" ma:displayName="Document Status" ma:readOnly="false" ma:default="1;#Draft|bed60e9a-f1b8-4691-a7e2-534f78067ff3" ma:fieldId="{b489bfe2-1c72-49ab-a6a1-ae186fa4e51c}" ma:sspId="14c281f0-fdb2-43d6-8bd5-8268950107ba" ma:termSetId="142c0697-2f33-49ef-84e0-8a01165d72ad" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="cbaf9fdaaf87475a8d0ae10d3e79318e" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="cbaf9fdaaf87475a8d0ae10d3e79318e" ma:taxonomyFieldName="ECMX_LIFECYCLE" ma:displayName="Lifecycle" ma:readOnly="true" ma:default="2;#Active|50127695-0d4f-4ac1-ab93-ebc716c3e584" ma:fieldId="{cbaf9fda-af87-475a-8d0a-e10d3e79318e}" ma:sspId="14c281f0-fdb2-43d6-8bd5-8268950107ba" ma:termSetId="84fb9b37-c2b8-4969-9234-b37fe8170d94" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="ECMX_OWNER" ma:index="27" nillable="true" ma:displayName="Owner" ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="ECMX_OWNER" ma:showField="ImnName">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:User">
+          <xsd:extension base="dms:UserMulti">
             <xsd:sequence>
               <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
                 <xsd:complexType>
@@ -4924,37 +4937,103 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="236fb19c-531c-4906-93ff-6da175312317" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2c93e69-2a94-4828-91f8-356e1218f977" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_dlc_DocId" ma:index="28" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:indexed="true" ma:internalName="_dlc_DocId" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_dlc_DocIdUrl" ma:index="29" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdPersistId" ma:index="30" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="TaxKeywordTaxHTField" ma:index="31" nillable="true" ma:taxonomy="true" ma:internalName="TaxKeywordTaxHTField" ma:taxonomyFieldName="TaxKeyword" ma:displayName="Enterprise Keywords" ma:fieldId="{23f27201-bee3-471e-b2e7-b64fd8b7ca38}" ma:taxonomyMulti="true" ma:sspId="14c281f0-fdb2-43d6-8bd5-8268950107ba" ma:termSetId="00000000-0000-0000-0000-000000000000" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="true" ma:isKeyword="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b86d5498-23a0-42a0-876b-b3c9112a049c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="26" nillable="true" ma:displayName="Afmeldingsstatus" ma:internalName="Afmeldingsstatus">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="27" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="28" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="30" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Status" ma:index="31" nillable="true" ma:displayName="Status" ma:description="Experiment Documentbeheer&#10;Geeft aan in hoeverre een document recentelijk op actualiteit is beoordeeld." ma:format="Dropdown" ma:internalName="Status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="✅ Actueel"/>
+          <xsd:enumeration value="🔄 Herziening nodig"/>
+          <xsd:enumeration value="❌ Verouderd"/>
+        </xsd:restriction>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -4966,8 +5045,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -5108,7 +5187,7 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="14c281f0-fdb2-43d6-8bd5-8268950107ba" ContentTypeId="0x010100EE95EE7DB3A482488E68FA4A7091999F" PreviousValue="false" LastSyncTimeStamp="2023-05-23T07:48:25.837Z"/>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="b86d5498-23a0-42a0-876b-b3c9112a049c" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5123,80 +5202,24 @@
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <b489bfe21c7249aba6a1ae186fa4e51c xmlns="fe73b3f6-a427-4a99-886e-da32c6de835d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Draft</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bed60e9a-f1b8-4691-a7e2-534f78067ff3</TermId>
-        </TermInfo>
-      </Terms>
-    </b489bfe21c7249aba6a1ae186fa4e51c>
-    <_dlc_DocId xmlns="236fb19c-531c-4906-93ff-6da175312317">ObSiom24-1338803985-153</_dlc_DocId>
-    <TaxCatchAll xmlns="fe73b3f6-a427-4a99-886e-da32c6de835d">
+    <TaxCatchAll xmlns="e36f48cb-a69d-424f-965f-90680a634d4c">
       <Value>2</Value>
       <Value>1</Value>
     </TaxCatchAll>
-    <cbaf9fdaaf87475a8d0ae10d3e79318e xmlns="fe73b3f6-a427-4a99-886e-da32c6de835d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Active</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">50127695-0d4f-4ac1-ab93-ebc716c3e584</TermId>
-        </TermInfo>
-      </Terms>
-    </cbaf9fdaaf87475a8d0ae10d3e79318e>
-    <_dlc_DocIdUrl xmlns="236fb19c-531c-4906-93ff-6da175312317">
-      <Url>https://ecdc365.sharepoint.com/teams/econ_obsiom24/_layouts/15/DocIdRedir.aspx?ID=ObSiom24-1338803985-153</Url>
-      <Description>ObSiom24-1338803985-153</Description>
-    </_dlc_DocIdUrl>
-    <ECMX_SUMMARY xmlns="4240f11c-4df2-4a37-9be1-bdf0d4dfc218" xsi:nil="true"/>
-    <ECMX_ADDITIONALINFO xmlns="4240f11c-4df2-4a37-9be1-bdf0d4dfc218" xsi:nil="true"/>
-    <ECMX_OWNER xmlns="fe73b3f6-a427-4a99-886e-da32c6de835d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </ECMX_OWNER>
-    <kf1264ba1b22407abef15b09c01e8cf0 xmlns="fe73b3f6-a427-4a99-886e-da32c6de835d">
+    <Status xmlns="d2c93e69-2a94-4828-91f8-356e1218f977" xsi:nil="true"/>
+    <Resultaat xmlns="28349b29-79b2-45aa-b36e-fb891b3ccb4b" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="d2c93e69-2a94-4828-91f8-356e1218f977" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d2c93e69-2a94-4828-91f8-356e1218f977">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </kf1264ba1b22407abef15b09c01e8cf0>
-    <TaxKeywordTaxHTField xmlns="236fb19c-531c-4906-93ff-6da175312317">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <o13d78bceb4b4178ab3c456bf4db706a xmlns="fe73b3f6-a427-4a99-886e-da32c6de835d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o13d78bceb4b4178ab3c456bf4db706a>
-    <ECMX_PUBLISHDATE xmlns="4240f11c-4df2-4a37-9be1-bdf0d4dfc218" xsi:nil="true"/>
-    <ECMX_BUSINESSID xmlns="4240f11c-4df2-4a37-9be1-bdf0d4dfc218" xsi:nil="true"/>
-    <c67668d6730c4bc2a26c654fc875ab99 xmlns="fe73b3f6-a427-4a99-886e-da32c6de835d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c67668d6730c4bc2a26c654fc875ab99>
-    <na274824997947589a1bfdfb0b645b50 xmlns="fe73b3f6-a427-4a99-886e-da32c6de835d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </na274824997947589a1bfdfb0b645b50>
-    <ECMX_OPERATIONALID xmlns="4240f11c-4df2-4a37-9be1-bdf0d4dfc218" xsi:nil="true"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Procestypenaam xmlns="28349b29-79b2-45aa-b36e-fb891b3ccb4b" xsi:nil="true"/>
+    <Bewaartermijn xmlns="28349b29-79b2-45aa-b36e-fb891b3ccb4b">2 jaar</Bewaartermijn>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60164294-8188-4BB6-B11F-811E7C0C050E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4240f11c-4df2-4a37-9be1-bdf0d4dfc218"/>
-    <ds:schemaRef ds:uri="fe73b3f6-a427-4a99-886e-da32c6de835d"/>
-    <ds:schemaRef ds:uri="236fb19c-531c-4906-93ff-6da175312317"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C737FCE-E9F8-45F9-A405-CBC0A80224B0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5208,11 +5231,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC410A35-88E2-4B22-AE75-EF5753F3F18F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E46100F-FDEB-4473-8CC0-B86E995A01CB}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
